--- a/contabilità/contabilità.xlsx
+++ b/contabilità/contabilità.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_FDBC738146AD83244EAEC7E9165F976699F9D398" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -73,7 +74,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -350,16 +351,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -368,12 +369,12 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1200</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>200</v>
       </c>

--- a/contabilità/contabilità.xlsx
+++ b/contabilità/contabilità.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_FDBC738146AD83244EAEC7E9165F976699F9D398" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="11_FDBC738146AD83244EAEC7E9165F976699F9D398" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6FA2FED-42CA-4EEA-80E6-524725534406}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Entrate</t>
   </si>
   <si>
     <t>Uscite</t>
+  </si>
+  <si>
+    <t>Saldo</t>
   </si>
 </sst>
 </file>
@@ -355,7 +358,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -367,16 +370,24 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1200</v>
       </c>
+      <c r="C2">
+        <v>1200</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>200</v>
+      </c>
+      <c r="C3">
+        <v>-200</v>
       </c>
     </row>
   </sheetData>

--- a/contabilità/contabilità.xlsx
+++ b/contabilità/contabilità.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_FDBC738146AD83244EAEC7E9165F976699F9D398" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{678A1406-2132-40A0-87AE-CE55DD93CAC9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="6290" yWindow="0" windowWidth="9600" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -19,18 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Entrate</t>
   </si>
   <si>
     <t>Uscite</t>
   </si>
+  <si>
+    <t>Saldo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -73,7 +77,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -350,32 +354,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C1" sqref="C1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1200</v>
       </c>
+      <c r="C2">
+        <v>1200</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>200</v>
+      </c>
+      <c r="C3">
+        <v>-200</v>
       </c>
     </row>
   </sheetData>

--- a/contabilità/contabilità.xlsx
+++ b/contabilità/contabilità.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_FDBC738146AD83244EAEC7E9165F976699F9D398" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{678A1406-2132-40A0-87AE-CE55DD93CAC9}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_FDBC738146AD83244EAEC7E9165F976699F9D398" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{458D383E-3CC3-41FE-8F65-7FAE8CB74102}"/>
   <bookViews>
-    <workbookView xWindow="6290" yWindow="0" windowWidth="9600" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2750" yWindow="300" windowWidth="9600" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Entrate</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>Saldo</t>
+  </si>
+  <si>
+    <t>Differenza</t>
   </si>
 </sst>
 </file>
@@ -355,10 +358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1048576"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -371,7 +374,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -388,6 +391,25 @@
       </c>
       <c r="C3">
         <v>-200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3000</v>
+      </c>
+      <c r="B4">
+        <v>500</v>
+      </c>
+      <c r="C4">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>3500</v>
       </c>
     </row>
   </sheetData>

--- a/contabilità/contabilità.xlsx
+++ b/contabilità/contabilità.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="39" documentId="11_FDBC738146AD83244EAEC7E9165F976699F9D398" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6FA2FED-42CA-4EEA-80E6-524725534406}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="11_FDBC738146AD83244EAEC7E9165F976699F9D398" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B680F6E-1068-45AD-8FF0-22408461DC12}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2750" yWindow="300" windowWidth="9600" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Entrate</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>Saldo</t>
+  </si>
+  <si>
+    <t>Differenza</t>
   </si>
 </sst>
 </file>
@@ -355,7 +358,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
@@ -371,7 +374,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -388,6 +391,14 @@
       </c>
       <c r="C3">
         <v>-200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/contabilità/contabilità.xlsx
+++ b/contabilità/contabilità.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="41" documentId="11_FDBC738146AD83244EAEC7E9165F976699F9D398" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B680F6E-1068-45AD-8FF0-22408461DC12}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="11_FDBC738146AD83244EAEC7E9165F976699F9D398" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E85F76A7-8301-42DE-874E-0EFD7DF30517}"/>
   <bookViews>
-    <workbookView xWindow="2750" yWindow="300" windowWidth="9600" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Entrate</t>
   </si>
   <si>
     <t>Uscite</t>
-  </si>
-  <si>
-    <t>Saldo</t>
-  </si>
-  <si>
-    <t>Differenza</t>
   </si>
 </sst>
 </file>
@@ -358,47 +352,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1200</v>
       </c>
-      <c r="C2">
-        <v>1200</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>200</v>
-      </c>
-      <c r="C3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/contabilità/contabilità.xlsx
+++ b/contabilità/contabilità.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="27" documentId="11_FDBC738146AD83244EAEC7E9165F976699F9D398" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{458D383E-3CC3-41FE-8F65-7FAE8CB74102}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="11_FDBC738146AD83244EAEC7E9165F976699F9D398" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5898368D-9EE7-4D69-A743-5E503CBA69F4}"/>
   <bookViews>
-    <workbookView xWindow="2750" yWindow="300" windowWidth="9600" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Entrate</t>
   </si>
   <si>
     <t>Uscite</t>
-  </si>
-  <si>
-    <t>Saldo</t>
-  </si>
-  <si>
-    <t>Differenza</t>
   </si>
 </sst>
 </file>
@@ -358,58 +352,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1200</v>
       </c>
-      <c r="C2">
-        <v>1200</v>
+      <c r="B2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0</v>
+      </c>
       <c r="B3">
         <v>200</v>
-      </c>
-      <c r="C3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3000</v>
-      </c>
-      <c r="B4">
-        <v>500</v>
-      </c>
-      <c r="C4">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>3500</v>
       </c>
     </row>
   </sheetData>

--- a/contabilità/contabilità.xlsx
+++ b/contabilità/contabilità.xlsx
@@ -1,92 +1,116 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
-  <workbookPr filterPrivacy="1"/>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <x:workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <xr:revisionPtr revIDLastSave="51" documentId="11_FDBC738146AD83244EAEC7E9165F976699F9D398" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5898368D-9EE7-4D69-A743-5E503CBA69F4}"/>
-  <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <x:bookViews>
+    <x:workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="162913"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Entrate</t>
-  </si>
-  <si>
-    <t>Uscite</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <x:si>
+    <x:t>Entrate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Uscite</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="3" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="3">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="4">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -351,41 +375,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1200</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:B3"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="D9" sqref="D9 D9:D9"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <x:c r="A1" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <x:c r="A2" s="2" t="n">
+        <x:v>1200</x:v>
+      </x:c>
+      <x:c r="B2" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <x:c r="A3" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="n">
+        <x:v>200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:4">
+      <x:c r="A4" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="n">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="A5" s="2" t="n">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4"/>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="9" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId1"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>